--- a/Fase 2 - Final/Evidencias Grupales/PLANILLA DE EVALUACION FINAL FASE 2.xlsx
+++ b/Fase 2 - Final/Evidencias Grupales/PLANILLA DE EVALUACION FINAL FASE 2.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Clases\DUOC\CAPSTONE\2025-2\Rúbricas\4D\Fase 2\Equipo 6\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Clases\DUOC\CAPSTONE\2025-2\Rúbricas\4D\Fase 2\Equipo 7\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27FDCD6D-5C77-4DFC-B3FB-3E58D2A32548}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E711326D-0847-4305-9621-925CB300E28E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -320,10 +320,10 @@
     <t>Muy Relevante</t>
   </si>
   <si>
-    <t>DONOSO PEREZ FELIPE</t>
+    <t>MORA PALMA MATIAS FRANCISCO</t>
   </si>
   <si>
-    <t>CARTAGENA SILVA YORDANO JESUS</t>
+    <t>LEYTON CISTERNA SEBASTIAN ANDRES</t>
   </si>
 </sst>
 </file>
@@ -1612,7 +1612,7 @@
   <dimension ref="A2:K926"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" outlineLevelRow="1" x14ac:dyDescent="0.3"/>
@@ -1661,7 +1661,7 @@
       </c>
       <c r="C4" s="5">
         <f>EVALUACION1!$C$21</f>
-        <v>5.6</v>
+        <v>3.8</v>
       </c>
       <c r="D4" s="5">
         <f>$C$32</f>
@@ -1669,7 +1669,7 @@
       </c>
       <c r="E4" s="6">
         <f>C4*C$2+D4*D$2</f>
-        <v>5.9499999999999993</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="G4" s="1"/>
     </row>
@@ -1682,7 +1682,7 @@
       </c>
       <c r="C5" s="5">
         <f>EVALUACION1!$C$21</f>
-        <v>5.6</v>
+        <v>3.8</v>
       </c>
       <c r="D5" s="5">
         <f>C44</f>
@@ -1690,7 +1690,7 @@
       </c>
       <c r="E5" s="6">
         <f t="shared" ref="E5:E6" si="0">C5*C$2+D5*D$2</f>
-        <v>5.9499999999999993</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="G5" s="1"/>
     </row>
@@ -1701,7 +1701,7 @@
       <c r="B6" s="27"/>
       <c r="C6" s="5">
         <f>EVALUACION1!$C$21</f>
-        <v>5.6</v>
+        <v>3.8</v>
       </c>
       <c r="D6" s="5">
         <f>C55</f>
@@ -1709,7 +1709,7 @@
       </c>
       <c r="E6" s="6">
         <f t="shared" si="0"/>
-        <v>5.9499999999999993</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="G6" s="1"/>
     </row>
@@ -1804,7 +1804,7 @@
         <v>2. Genera evidencias que dan cuenta del cumplimiento del Proyecto CAPSTONE, en relación a documentación, programación y almacenamiento de datos, de acuerdo a lo planificado por el equipo y que cumpla con estándares de desarrollo de la industria</v>
       </c>
       <c r="C14" s="28" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="D14" s="16" t="str">
         <f t="shared" si="1"/>
@@ -1816,19 +1816,19 @@
       </c>
       <c r="F14" s="16" t="str">
         <f t="shared" si="2"/>
-        <v>X</v>
-      </c>
-      <c r="G14" s="16">
+        <v/>
+      </c>
+      <c r="G14" s="16" t="str">
         <f>IF(F14="X",60*0.2,"")</f>
-        <v>12</v>
+        <v/>
       </c>
       <c r="H14" s="16" t="str">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="I14" s="16" t="str">
+        <v>X</v>
+      </c>
+      <c r="I14" s="16">
         <f>IF(H14="X",30*0.2,"")</f>
-        <v/>
+        <v>6</v>
       </c>
       <c r="J14" s="16" t="str">
         <f t="shared" si="4"/>
@@ -1888,23 +1888,23 @@
         <v>5. Utiliza de manera precisa el lenguaje técnico en los entregables de acuerdo con lo requerido por la disciplina.</v>
       </c>
       <c r="C16" s="28" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D16" s="16" t="str">
         <f t="shared" si="1"/>
-        <v>X</v>
-      </c>
-      <c r="E16" s="16">
+        <v/>
+      </c>
+      <c r="E16" s="16" t="str">
         <f>IF(D16="X",100*0.05,"")</f>
-        <v>5</v>
+        <v/>
       </c>
       <c r="F16" s="16" t="str">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="G16" s="16" t="str">
+        <v>X</v>
+      </c>
+      <c r="G16" s="16">
         <f>IF(F16="X",60*0.05,"")</f>
-        <v/>
+        <v>3</v>
       </c>
       <c r="H16" s="16" t="str">
         <f t="shared" si="3"/>
@@ -1972,23 +1972,23 @@
         <v>7. Entrega la documentación y evidencias requerida por la asignatura de acuerdo a la estrucutra y nombres solicitados, guardando todas las evidencias de avances en Git</v>
       </c>
       <c r="C18" s="28" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D18" s="16" t="str">
         <f>IF($C18=CL,"X","")</f>
-        <v>X</v>
-      </c>
-      <c r="E18" s="16">
+        <v/>
+      </c>
+      <c r="E18" s="16" t="str">
         <f>IF(D18="X",100*0.15,"")</f>
-        <v>15</v>
+        <v/>
       </c>
       <c r="F18" s="16" t="str">
         <f>IF($C18=L,"X","")</f>
-        <v/>
-      </c>
-      <c r="G18" s="16" t="str">
+        <v>X</v>
+      </c>
+      <c r="G18" s="16">
         <f>IF(F18="X",60*0.15,"")</f>
-        <v/>
+        <v>9</v>
       </c>
       <c r="H18" s="16" t="str">
         <f>IF($C18=ML,"X","")</f>
@@ -2014,7 +2014,7 @@
         <v>9.-Generan evidencias claras dentro del repositorio  del aporte de cada uno de los integrantes del equipo que permitan identificar la equidad en el trabajo y la participación de cada estudiante.</v>
       </c>
       <c r="C19" s="28" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="D19" s="16" t="str">
         <f>IF($C19=CL,"X","")</f>
@@ -2026,19 +2026,19 @@
       </c>
       <c r="F19" s="16" t="str">
         <f>IF($C19=L,"X","")</f>
-        <v>X</v>
-      </c>
-      <c r="G19" s="16">
+        <v/>
+      </c>
+      <c r="G19" s="16" t="str">
         <f>IF(F19="X",60*0.15,"")</f>
-        <v>9</v>
+        <v/>
       </c>
       <c r="H19" s="16" t="str">
         <f>IF($C19=ML,"X","")</f>
-        <v/>
-      </c>
-      <c r="I19" s="16" t="str">
+        <v>X</v>
+      </c>
+      <c r="I19" s="16">
         <f>IF(H19="X",30*0.15,"")</f>
-        <v/>
+        <v>4.5</v>
       </c>
       <c r="J19" s="16" t="str">
         <f>IF($C19=NL,"X","")</f>
@@ -2056,22 +2056,22 @@
       </c>
       <c r="C20" s="33">
         <f>E20+G20+I20+K20</f>
-        <v>61</v>
+        <v>42.5</v>
       </c>
       <c r="D20" s="19"/>
       <c r="E20" s="19">
         <f>SUM(E13:E19)</f>
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="F20" s="19"/>
       <c r="G20" s="19">
         <f>SUM(G13:G19)</f>
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="H20" s="19"/>
       <c r="I20" s="19">
         <f>SUM(I13:I19)</f>
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="J20" s="19"/>
       <c r="K20" s="19">
@@ -2086,7 +2086,7 @@
       </c>
       <c r="C21" s="20">
         <f>VLOOKUP(C20,ESCALA_IEP!A1:B152,2,FALSE)</f>
-        <v>5.6</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2100,7 +2100,7 @@
       </c>
       <c r="C24" s="55" t="str">
         <f>$B$4</f>
-        <v>DONOSO PEREZ FELIPE</v>
+        <v>MORA PALMA MATIAS FRANCISCO</v>
       </c>
       <c r="D24" s="56"/>
       <c r="E24" s="56"/>
@@ -2350,7 +2350,7 @@
       </c>
       <c r="C36" s="55" t="str">
         <f>B5</f>
-        <v>CARTAGENA SILVA YORDANO JESUS</v>
+        <v>LEYTON CISTERNA SEBASTIAN ANDRES</v>
       </c>
       <c r="D36" s="56"/>
       <c r="E36" s="56"/>
